--- a/outputs-r202/test-g__UBA4372.xlsx
+++ b/outputs-r202/test-g__UBA4372.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
   <si>
     <t>Row</t>
   </si>
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -212,14 +212,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,962 +284,962 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="C2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="D2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="E2">
-        <v>0.022886814163680217</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="F2">
-        <v>0.022886814163680217</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="G2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="H2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="I2">
-        <v>0.022889512336262539</v>
+        <v>1.1931727927486078e-05</v>
       </c>
       <c r="J2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="K2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="L2">
-        <v>0.022886814163680193</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="M2">
-        <v>0.02288681416368258</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="N2">
-        <v>0.022892932798166031</v>
+        <v>2.3902648819652812e-08</v>
       </c>
       <c r="O2">
-        <v>0.022886814296667186</v>
+        <v>0.99940253726778683</v>
       </c>
       <c r="P2">
-        <v>0.02289893176935694</v>
+        <v>0.00020167208847489518</v>
       </c>
       <c r="Q2">
-        <v>0.022887874091910679</v>
+        <v>2.7396981021342436e-07</v>
       </c>
       <c r="R2">
-        <v>0.022886815001595645</v>
+        <v>1.3126838669213538e-06</v>
       </c>
       <c r="S2">
-        <v>0.022886814163677868</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="T2">
-        <v>0.022886814163677813</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="U2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="V2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="W2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="X2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="Y2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="Z2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AA2">
-        <v>0.022886814163677764</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AB2">
-        <v>0.022886814163677813</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AC2">
-        <v>0.022886814163677837</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AD2">
-        <v>0.023518450601934405</v>
+        <v>1.3415867804140744e-08</v>
       </c>
       <c r="AE2">
-        <v>0.022886814163677837</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AF2">
-        <v>0.022886814163677813</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AG2">
-        <v>0.022886814163677813</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AH2">
-        <v>0.022886814163677813</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AI2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AJ2">
-        <v>0.024281976177605635</v>
+        <v>0.00038223494283988246</v>
       </c>
       <c r="AK2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AL2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AM2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AN2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AO2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AP2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AQ2">
-        <v>0.022886814163677882</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AR2">
-        <v>0.036705011361426558</v>
+        <v>2.2204161082312285e-14</v>
       </c>
       <c r="AS2">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="C3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="D3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="E3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="F3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="G3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="H3">
-        <v>2.2199379876403802e-14</v>
+        <v>0.00016407806814538355</v>
       </c>
       <c r="I3">
-        <v>9.7770146180040478e-09</v>
+        <v>2.1104026470274493e-07</v>
       </c>
       <c r="J3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="K3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="L3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="M3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="N3">
-        <v>4.818335435064718e-10</v>
+        <v>3.4536027956209148e-11</v>
       </c>
       <c r="O3">
-        <v>0.83093685059312217</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="P3">
-        <v>0.001352692859719408</v>
+        <v>0.99806241874743395</v>
       </c>
       <c r="Q3">
-        <v>0.16760065540373986</v>
+        <v>1.4320561610977663e-09</v>
       </c>
       <c r="R3">
-        <v>0.00010888144105428064</v>
+        <v>0.0008910641352116032</v>
       </c>
       <c r="S3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="T3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="U3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="V3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="W3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="X3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AB3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AC3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AE3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AF3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AI3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AJ3">
-        <v>9.0944271678873779e-07</v>
+        <v>0.00088222654155296898</v>
       </c>
       <c r="AK3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AL3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AM3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AN3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AO3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AP3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AQ3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AR3">
-        <v>2.2199379876403802e-14</v>
+        <v>2.2203473669126735e-14</v>
       </c>
       <c r="AS3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.022759403550823492</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="C4">
-        <v>0.022759403550823492</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="D4">
-        <v>0.022759403550823492</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="E4">
-        <v>0.022759403550823492</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="F4">
-        <v>0.022759403550823492</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="G4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="H4">
-        <v>0.022759403551132644</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="I4">
-        <v>0.02275967359738116</v>
+        <v>9.4309059557910129e-09</v>
       </c>
       <c r="J4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="K4">
-        <v>0.022759403550823464</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="L4">
-        <v>0.02275940355082345</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="M4">
-        <v>0.022759403550828217</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="N4">
-        <v>0.022759542206603939</v>
+        <v>3.3931084449762204e-05</v>
       </c>
       <c r="O4">
-        <v>0.02275942413608209</v>
+        <v>1.5325874340862771e-09</v>
       </c>
       <c r="P4">
-        <v>0.022810710343301656</v>
+        <v>1.2129668022037262e-06</v>
       </c>
       <c r="Q4">
-        <v>0.022759448112616879</v>
+        <v>0.00094606135877879258</v>
       </c>
       <c r="R4">
-        <v>0.022759403685795526</v>
+        <v>0.99901874145978797</v>
       </c>
       <c r="S4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="T4">
-        <v>0.022759403550823509</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="U4">
-        <v>0.022759403550823495</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="V4">
-        <v>0.022759403550823509</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="W4">
-        <v>0.022759403550823495</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="X4">
-        <v>0.022759403550823509</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="Y4">
-        <v>0.022759403550823495</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="Z4">
-        <v>0.022759403550823509</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AA4">
-        <v>0.022759403550823495</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AB4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AC4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AD4">
-        <v>0.022759880385592034</v>
+        <v>1.2052213325245971e-10</v>
       </c>
       <c r="AE4">
-        <v>0.022759403550823547</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AF4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AG4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AH4">
-        <v>0.022759403550823523</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AI4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AJ4">
-        <v>0.030270849178256242</v>
+        <v>4.2045388714418142e-08</v>
       </c>
       <c r="AK4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AL4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AM4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AN4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AO4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AP4">
-        <v>0.022759403550823534</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AQ4">
-        <v>0.022759403550823468</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AR4">
-        <v>0.036541347626057485</v>
+        <v>2.2203955268971892e-14</v>
       </c>
       <c r="AS4">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="C5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="D5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="E5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="F5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="G5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="H5">
-        <v>3.9102724899466643e-08</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="I5">
-        <v>4.5285390331629164e-07</v>
+        <v>8.0659968868297443e-09</v>
       </c>
       <c r="J5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="K5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="L5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="M5">
-        <v>2.2223714726370808e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="N5">
-        <v>3.1218694496790299e-09</v>
+        <v>7.9708660414851281e-05</v>
       </c>
       <c r="O5">
-        <v>2.2223714726370808e-14</v>
+        <v>5.1949828040930975e-10</v>
       </c>
       <c r="P5">
-        <v>0.9989278092566104</v>
+        <v>3.8994816509703941e-07</v>
       </c>
       <c r="Q5">
-        <v>1.183659680769151e-08</v>
+        <v>0.00053898469754226879</v>
       </c>
       <c r="R5">
-        <v>2.5248523524701071e-05</v>
+        <v>0.9993808665554158</v>
       </c>
       <c r="S5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="T5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="U5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="V5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="W5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="X5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AB5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AC5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AD5">
-        <v>2.6983561138501778e-10</v>
+        <v>2.5834940996621572e-10</v>
       </c>
       <c r="AE5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AF5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AI5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AJ5">
-        <v>0.001046435034157446</v>
+        <v>4.1293840067219834e-08</v>
       </c>
       <c r="AK5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AL5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AM5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AN5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AO5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AP5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AQ5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AR5">
-        <v>2.2223714726370802e-14</v>
+        <v>2.2204141373460392e-14</v>
       </c>
       <c r="AS5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="I6">
-        <v>2.6345520561842482e-08</v>
+        <v>1.5237591539865349e-07</v>
       </c>
       <c r="J6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="K6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204042145577679e-14</v>
+        <v>0.99187860472687706</v>
       </c>
       <c r="N6">
-        <v>0.00069642886007339317</v>
+        <v>1.5678609554792111e-10</v>
       </c>
       <c r="O6">
-        <v>8.1848838263978692e-10</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="P6">
-        <v>4.4287294635865244e-08</v>
+        <v>2.2697273914900767e-06</v>
       </c>
       <c r="Q6">
-        <v>0.00021779978317850731</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="R6">
-        <v>0.99908550511137151</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="T6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="U6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="V6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="W6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="X6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AB6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AC6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AD6">
-        <v>7.6326555096329506e-10</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AE6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AF6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AJ6">
-        <v>1.9403003038005003e-07</v>
+        <v>0.0081189730121863819</v>
       </c>
       <c r="AK6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AL6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AM6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AN6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AO6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AP6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AQ6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AR6">
-        <v>2.2204042145577679e-14</v>
+        <v>2.2202101652348197e-14</v>
       </c>
       <c r="AS6">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="C7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="D7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="E7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="F7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="G7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="H7">
-        <v>0.022600664590123755</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="I7">
-        <v>0.022601166511961961</v>
+        <v>7.2116966994980449e-10</v>
       </c>
       <c r="J7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="K7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="L7">
-        <v>0.022600664590040426</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="M7">
-        <v>0.022600664608456306</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="N7">
-        <v>0.022609767031317157</v>
+        <v>0.49992911741113039</v>
       </c>
       <c r="O7">
-        <v>0.022744933864292782</v>
+        <v>3.2721839544552115e-10</v>
       </c>
       <c r="P7">
-        <v>0.022600722957034459</v>
+        <v>1.0339061199540464e-08</v>
       </c>
       <c r="Q7">
-        <v>0.022602927211383593</v>
+        <v>2.5923855048409933e-09</v>
       </c>
       <c r="R7">
-        <v>0.02260066459004037</v>
+        <v>3.5783473859613773e-06</v>
       </c>
       <c r="S7">
-        <v>0.044435613797944272</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="T7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="U7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="V7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="W7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="X7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="Y7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="Z7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AA7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AB7">
-        <v>0.022600664590040356</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AC7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AD7">
-        <v>0.022600664590051955</v>
+        <v>6.4186395416829576e-07</v>
       </c>
       <c r="AE7">
-        <v>0.022600664590040367</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AF7">
-        <v>0.022600664590040353</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AG7">
-        <v>0.022600664590040353</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AH7">
-        <v>0.022600664590040353</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AI7">
-        <v>0.022600664590040363</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AJ7">
-        <v>0.028780943366101285</v>
+        <v>6.1668449898150601e-05</v>
       </c>
       <c r="AK7">
-        <v>0.022600664590040374</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AL7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AM7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AN7">
-        <v>0.022600664590040377</v>
+        <v>0.50000497994704163</v>
       </c>
       <c r="AO7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AP7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AQ7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AR7">
-        <v>0.022600664590040377</v>
+        <v>2.2204548373522121e-14</v>
       </c>
       <c r="AS7">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
